--- a/ys_xml/A00_TimeTable/2017/12.xlsx
+++ b/ys_xml/A00_TimeTable/2017/12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>计划清单</t>
   </si>
@@ -209,49 +209,55 @@
   </si>
   <si>
     <t>醒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 洗漱、洗头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信(CY)
+淘宝(紧身裤、嫂子的月子服)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>睡觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗漱</t>
+    <t>修改cell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路上</t>
+    <t>午饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WC等</t>
+    <t>[急诊科医生]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CollectionView布局</t>
+    <t>午休</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.5h</t>
+    <t>记录时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肉包，鸡蛋</t>
+    <t>AFNetWorking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>[急诊科医生]、[爸爸去哪儿]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>馒头，乱炖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《别让未来的你，讨厌现在的自己》</t>
+    <t>《苏菲的世界》、《金字塔原理》
+《Objective-C 2.0》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,8 +307,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +417,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -852,7 +888,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,6 +1001,90 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -977,12 +1097,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,9 +1123,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1067,94 +1178,43 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1504,15 +1564,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
     <col min="5" max="8" width="14.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1522,7 +1582,7 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
       <c r="D1" s="3">
@@ -1552,13 +1612,13 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1571,8 +1631,8 @@
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1590,8 +1650,8 @@
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1609,8 +1669,8 @@
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1628,11 +1688,11 @@
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="91" t="s">
-        <v>63</v>
-      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="104"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1659,9 +1719,9 @@
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="104"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1680,9 +1740,9 @@
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1701,11 +1761,11 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="99" t="s">
-        <v>64</v>
-      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="98"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1722,11 +1782,11 @@
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="99" t="s">
-        <v>65</v>
-      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="98"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1743,11 +1803,11 @@
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="99" t="s">
-        <v>66</v>
-      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="98"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1764,11 +1824,9 @@
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="101" t="s">
-        <v>67</v>
-      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1785,8 +1843,8 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1804,8 +1862,8 @@
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1823,8 +1881,10 @@
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="103" t="s">
+        <v>67</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1842,8 +1902,10 @@
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="108" t="s">
+        <v>68</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1861,8 +1923,10 @@
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="100" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1880,8 +1944,8 @@
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1899,8 +1963,10 @@
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="102" t="s">
+        <v>70</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1918,8 +1984,10 @@
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="109" t="s">
+        <v>71</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1937,8 +2005,10 @@
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="109" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1956,29 +2026,29 @@
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="72"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1986,18 +2056,18 @@
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
       <c r="J23" s="42"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="75"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2005,41 +2075,41 @@
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
       <c r="J24" s="43"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="K25" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="81"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2047,18 +2117,18 @@
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
       <c r="J26" s="42"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="84"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2066,39 +2136,39 @@
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
       <c r="J27" s="43"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="62"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="87"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="65"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="90"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2106,18 +2176,18 @@
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="93"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2125,39 +2195,39 @@
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
       <c r="J30" s="43"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="95"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="53" t="s">
+      <c r="J31" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="95"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2165,18 +2235,18 @@
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="42"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="77"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="49"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="95"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2184,39 +2254,41 @@
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="95"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="82"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="84"/>
+      <c r="K34" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2224,37 +2296,37 @@
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
       <c r="J35" s="42"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="87"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="59"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1" thickBot="1">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="90"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="62"/>
     </row>
     <row r="37" spans="1:15" ht="23" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2272,8 +2344,8 @@
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="95"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="97"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2291,8 +2363,8 @@
       <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2310,8 +2382,8 @@
       <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="95"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2329,8 +2401,8 @@
       <c r="A41" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2348,8 +2420,8 @@
       <c r="A42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2367,8 +2439,8 @@
       <c r="A43" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2386,8 +2458,8 @@
       <c r="A44" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2405,8 +2477,8 @@
       <c r="A45" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2424,8 +2496,8 @@
       <c r="A46" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2442,7 +2514,7 @@
     <row r="47" spans="1:15" ht="23" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="10"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2461,7 +2533,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
@@ -2479,11 +2551,9 @@
       <c r="A49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2500,11 +2570,9 @@
       <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2521,11 +2589,9 @@
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="94"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -2542,11 +2608,9 @@
       <c r="A52" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="94"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -2563,8 +2627,8 @@
       <c r="A53" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="95"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2582,8 +2646,8 @@
       <c r="A54" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2600,7 +2664,7 @@
     <row r="55" spans="1:15" ht="23" customHeight="1">
       <c r="A55" s="7"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2619,7 +2683,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="30"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
@@ -2637,11 +2701,9 @@
       <c r="A57" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="34">
-        <v>0.97916666666666663</v>
-      </c>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="34"/>
       <c r="F57" s="4"/>
       <c r="G57" s="12"/>
@@ -2658,11 +2720,9 @@
       <c r="A58" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="34">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="4"/>
       <c r="G58" s="12"/>
@@ -2679,11 +2739,9 @@
       <c r="A59" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="12"/>
@@ -3394,17 +3452,19 @@
       <c r="O100" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:O33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:O36"/>
-    <mergeCell ref="D6:D8"/>
+  <mergeCells count="14">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J22:J24"/>
     <mergeCell ref="K22:O24"/>
     <mergeCell ref="J25:J27"/>
     <mergeCell ref="K25:O27"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:O33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:O36"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:O30"/>
   </mergeCells>
@@ -3469,13 +3529,13 @@
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3871,14 +3931,14 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="72"/>
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1">
       <c r="A23" s="11" t="s">
@@ -3893,11 +3953,11 @@
       <c r="H23" s="4"/>
       <c r="I23" s="6"/>
       <c r="J23" s="42"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="75"/>
     </row>
     <row r="24" spans="1:15" ht="23" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -3912,11 +3972,11 @@
       <c r="H24" s="4"/>
       <c r="I24" s="6"/>
       <c r="J24" s="43"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1">
       <c r="A25" s="11" t="s">
@@ -3930,14 +3990,14 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="81"/>
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1">
       <c r="A26" s="11" t="s">
@@ -3952,11 +4012,11 @@
       <c r="H26" s="4"/>
       <c r="I26" s="6"/>
       <c r="J26" s="42"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="84"/>
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1">
       <c r="A27" s="11" t="s">
@@ -3971,11 +4031,11 @@
       <c r="H27" s="4"/>
       <c r="I27" s="6"/>
       <c r="J27" s="43"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="62"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="87"/>
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1">
       <c r="A28" s="11" t="s">
@@ -3989,14 +4049,14 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="65"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="90"/>
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1">
       <c r="A29" s="11" t="s">
@@ -4011,11 +4071,11 @@
       <c r="H29" s="4"/>
       <c r="I29" s="6"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="93"/>
     </row>
     <row r="30" spans="1:15" ht="23" customHeight="1">
       <c r="A30" s="11" t="s">
@@ -4030,11 +4090,11 @@
       <c r="H30" s="4"/>
       <c r="I30" s="6"/>
       <c r="J30" s="43"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96"/>
     </row>
     <row r="31" spans="1:15" ht="23" customHeight="1">
       <c r="A31" s="11" t="s">
@@ -4048,14 +4108,14 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="53" t="s">
+      <c r="J31" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1">
       <c r="A32" s="11" t="s">
@@ -4070,11 +4130,11 @@
       <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="42"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="77"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="49"/>
     </row>
     <row r="33" spans="1:15" ht="23" customHeight="1">
       <c r="A33" s="11" t="s">
@@ -4089,11 +4149,11 @@
       <c r="H33" s="4"/>
       <c r="I33" s="6"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="52"/>
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1">
       <c r="A34" s="11" t="s">
@@ -4107,14 +4167,14 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="82"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="84"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="1:15" ht="23" customHeight="1">
       <c r="A35" s="11" t="s">
@@ -4129,11 +4189,11 @@
       <c r="H35" s="4"/>
       <c r="I35" s="6"/>
       <c r="J35" s="42"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="87"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="59"/>
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1" thickBot="1">
       <c r="A36" s="11" t="s">
@@ -4147,12 +4207,12 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="90"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="62"/>
     </row>
     <row r="37" spans="1:15" ht="23" customHeight="1">
       <c r="A37" s="11" t="s">
@@ -5286,17 +5346,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:O24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:O27"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:O30"/>
     <mergeCell ref="J31:J33"/>
     <mergeCell ref="K31:O33"/>
     <mergeCell ref="J34:J36"/>
     <mergeCell ref="K34:O36"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:O24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:O27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
